--- a/doc/Table_track.xlsx
+++ b/doc/Table_track.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_track" sheetId="1" r:id="rId1"/>
+    <sheet name="组合1-成长" sheetId="1" r:id="rId1"/>
+    <sheet name="组合2-群体" sheetId="2" r:id="rId2"/>
+    <sheet name="组合3-成长" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>初始</t>
   </si>
@@ -53,13 +55,94 @@
   </si>
   <si>
     <t xml:space="preserve"> 新乳业</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>预期利润率</t>
+  </si>
+  <si>
+    <t>掌阅科技</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>海天精工</t>
+  </si>
+  <si>
+    <t>万里石</t>
+  </si>
+  <si>
+    <t>东尼电子</t>
+  </si>
+  <si>
+    <t>三祥新材</t>
+  </si>
+  <si>
+    <t>上海亚虹</t>
+  </si>
+  <si>
+    <t>天顺股份</t>
+  </si>
+  <si>
+    <t>威龙股份</t>
+  </si>
+  <si>
+    <t>白银有色</t>
+  </si>
+  <si>
+    <t>2019.5.31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6.30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>福莱特</t>
+  </si>
+  <si>
+    <t>威派格</t>
+  </si>
+  <si>
+    <t>蔚蓝生物</t>
+  </si>
+  <si>
+    <t>天风证券</t>
+  </si>
+  <si>
+    <t>贝通信</t>
+  </si>
+  <si>
+    <t>华林证券</t>
+  </si>
+  <si>
+    <t>新疆交建</t>
+  </si>
+  <si>
+    <t>长城军工</t>
+  </si>
+  <si>
+    <t>新乳业</t>
+  </si>
+  <si>
+    <t>至纯科技</t>
+  </si>
+  <si>
+    <t>贵州燃气</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +303,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +513,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -517,6 +641,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,11 +905,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1011,205 +1300,790 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="11">
         <v>43608</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="11">
         <v>43639</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="11">
         <v>43669</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="11">
         <v>43700</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="11">
         <v>43731</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="11">
         <v>43761</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="11">
         <v>43792</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="11">
         <v>43822</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="11">
         <v>43853</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="11">
         <v>43884</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="11">
         <v>43913</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="11">
         <v>43944</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="11">
         <v>43974</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f xml:space="preserve"> "601865"</f>
         <v>601865</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>9.9700000000000006</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="4" t="str">
         <f xml:space="preserve"> "603956"</f>
         <v>603956</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>18.11</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="4" t="str">
         <f xml:space="preserve"> "601162"</f>
         <v>601162</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>7.84</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="4" t="str">
         <f xml:space="preserve"> "002945"</f>
         <v>002945</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>10.4</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="4" t="str">
         <f xml:space="preserve"> "600903"</f>
         <v>600903</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>17.71</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="4" t="str">
         <f xml:space="preserve"> "002941"</f>
         <v>002941</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>23.52</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="4" t="str">
         <f xml:space="preserve"> "603690"</f>
         <v>603690</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>18.78</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="4" t="str">
         <f xml:space="preserve"> "603220"</f>
         <v>603220</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>25.16</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="4" t="str">
         <f xml:space="preserve"> "601606"</f>
         <v>601606</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>14.81</v>
       </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="4" t="str">
         <f xml:space="preserve"> "002946"</f>
         <v>002946</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>13.45</v>
       </c>
-    </row>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="20.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A2" s="5">
+        <v>603533</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.92145542744724895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A3" s="5">
+        <v>601882</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.72078515590027503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A4" s="5">
+        <v>2785</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.49223584456556901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A5" s="5">
+        <v>603595</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.45269078759506298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A6" s="5">
+        <v>603663</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.42379004963668399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A7" s="5">
+        <v>603159</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.38480200193052899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A8" s="5">
+        <v>2800</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.38159835050956098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A9" s="5">
+        <v>603779</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.38019523049401999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A10" s="5">
+        <v>601212</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.37269525121215602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="A12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A2" s="5">
+        <v>601865</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7">
+        <v>11.285548941798901</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A3" s="5">
+        <v>603956</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.4917721047005799</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A4" s="5">
+        <v>603739</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.4600974525991504</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A5" s="5">
+        <v>601162</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.1999757751937903</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A6" s="5">
+        <v>603220</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3.5498180674722599</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A7" s="5">
+        <v>2945</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.4453691236714699</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A8" s="5">
+        <v>2941</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3.11942855941468</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A9" s="5">
+        <v>601606</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3.00339065995525</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A10" s="5">
+        <v>2946</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.9447983014862</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A11" s="5">
+        <v>603690</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.9384820387540902</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A12" s="8">
+        <v>600903</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.1183934679465901</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
